--- a/database/roterizacao_resultado.xlsx
+++ b/database/roterizacao_resultado.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CUD1032</t>
+          <t>DXG5743</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -577,17 +577,17 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>1-5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EJW3802</t>
+          <t>CUD1348</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -643,17 +643,17 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>1-6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CUD1032</t>
+          <t>DXG5743</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -705,11 +705,11 @@
         <v>-47.4311572</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>2-3</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CUD1032</t>
+          <t>DJC8783</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -775,7 +775,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1-1</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CUD1032</t>
+          <t>CZP2057</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -841,7 +841,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>1-7</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CUD1032</t>
+          <t>FUX1712</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -907,7 +907,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1-7</t>
+          <t>1-10</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CUD1032</t>
+          <t>CVP8461</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -973,17 +973,17 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>1-11</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CUD1032</t>
+          <t>DXG5743</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1035,21 +1035,21 @@
         <v>-47.46832</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>3-3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FGE2H99</t>
+          <t>DAJ6915</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1105,17 +1105,17 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>1-13</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FGE2H99</t>
+          <t>FTA0472</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1171,17 +1171,17 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>3-3</t>
+          <t>1-12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FGE2H99</t>
+          <t>DAP8611</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1237,17 +1237,17 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>1-8</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EVY1293</t>
+          <t>CUD1348</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1299,21 +1299,21 @@
         <v>-46.8038889</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>2-1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FGE2H99</t>
+          <t>EBI0660</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EVY1293</t>
+          <t>ETR3620</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1435,17 +1435,17 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>1-9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EVY1293</t>
+          <t>EUA1389</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1501,17 +1501,17 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>1-3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EVY1293</t>
+          <t>CUD1348</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1563,21 +1563,21 @@
         <v>-46.8147375</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EVY1293</t>
+          <t>CUD1032</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1633,17 +1633,17 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>1-4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FQC0E26</t>
+          <t>DJC8783</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1695,21 +1695,21 @@
         <v>-46.8019092</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>5-1</t>
+          <t>3-2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FGE2H99</t>
+          <t>DJC8783</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1761,11 +1761,11 @@
         <v>-46.8040452</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>2-2</t>
         </is>
       </c>
     </row>
